--- a/词汇.xlsx
+++ b/词汇.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Collegiate</t>
   </si>
@@ -60,6 +60,22 @@
   </si>
   <si>
     <t>匪徒、歹徒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -506,6 +522,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/词汇.xlsx
+++ b/词汇.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Collegiate</t>
   </si>
@@ -76,6 +76,65 @@
   </si>
   <si>
     <t>陈述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位（数）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>an amount of</t>
+  </si>
+  <si>
+    <t>许多、一个量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>separated</t>
+  </si>
+  <si>
+    <t>分开的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>间隔、（数学）区间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取余、模组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascending order</t>
+  </si>
+  <si>
+    <t>升序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>包含</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -536,6 +595,70 @@
       </c>
       <c r="C8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
